--- a/data/georgia_census/qvemo-qartli/walka/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/walka/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A16D8CAE-4C33-40C6-8BC3-EE8BA65AFB8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB8DA4DB-B5DF-4EAE-AB9E-B294800D6FD8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74E4163B-F4FC-4948-BA9A-701B293995BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC522860-1F7A-49EF-83E1-39E8CDAD63FC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F87974-F893-4016-A421-A02D3316E7EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEAC3994-2D58-4007-845B-D1968DA6054B}"/>
 </file>